--- a/Doc/処理フロー.xlsx
+++ b/Doc/処理フロー.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT\Circling-Drones\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F279A85-C12A-4317-BE20-C49DC1A90D5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAC5E019-2769-4021-91E8-287E03C059CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1260" yWindow="90" windowWidth="25005" windowHeight="15000" xr2:uid="{FE41EEF1-2D56-49AF-A65C-9B954D74FEE1}"/>
+    <workbookView xWindow="4695" yWindow="480" windowWidth="19695" windowHeight="15000" xr2:uid="{FE41EEF1-2D56-49AF-A65C-9B954D74FEE1}"/>
   </bookViews>
   <sheets>
     <sheet name="制御処理フロー" sheetId="2" r:id="rId1"/>
@@ -136,14 +136,14 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4503,31 +4503,7 @@
               <a:ea typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>ファイルから読込みするように</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
-              <a:ea typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
-              <a:ea typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>対応した。</a:t>
+            <a:t>ファイルから読込みするように対応した。</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1000">
             <a:solidFill>
@@ -5187,22 +5163,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
+      <xdr:colOff>171450</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>325218</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>29409</xdr:rowOff>
+      <xdr:colOff>239474</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>76909</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2">
+        <xdr:cNvPr id="4" name="図 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02FD6B0D-5CDA-41C2-B8FF-7CD73F80B376}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E8B1C81-7CA0-458E-B472-4928D09E0A1E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5218,8 +5194,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="123825" y="6438900"/>
-          <a:ext cx="9802593" cy="5973009"/>
+          <a:off x="171450" y="6429375"/>
+          <a:ext cx="9669224" cy="5077534"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5533,9 +5509,7 @@
   </sheetPr>
   <dimension ref="B1:O3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="Q29" sqref="Q29"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
@@ -5548,26 +5522,26 @@
   <sheetData>
     <row r="1" spans="2:15" ht="9.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:15" ht="30.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="4" t="s">
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="3" t="s">
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
     </row>
     <row r="3" spans="2:15" ht="13.5" x14ac:dyDescent="0.4">
       <c r="B3" s="2"/>
@@ -5602,13 +5576,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8474DD19-4C1F-4C6D-A444-A6DDCC4E1524}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="P22" sqref="P22"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="P33" sqref="P33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="16384" width="9" style="5"/>
+    <col min="1" max="16384" width="9" style="3"/>
   </cols>
   <sheetData/>
   <phoneticPr fontId="1"/>
